--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL388\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="4080" windowWidth="23040" windowHeight="9528" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="4800" yWindow="4080" windowWidth="23040" windowHeight="9525" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Ref Des</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>N00160</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +477,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -550,6 +559,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -993,18 +1005,18 @@
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.88671875" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>37</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1086,11 +1098,11 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -1110,21 +1122,21 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1189,7 +1201,7 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -1228,7 +1240,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1267,7 +1279,7 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1306,7 +1318,7 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="31"/>
       <c r="C6" s="12"/>
@@ -1327,7 +1339,7 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
@@ -1361,7 +1373,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -1395,7 +1407,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -1429,7 +1441,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1475,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="31"/>
       <c r="C11" s="12"/>
@@ -1479,7 +1491,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1509,7 +1521,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="32"/>
       <c r="C13" s="12"/>
@@ -1525,7 +1537,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -1555,7 +1567,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="32"/>
       <c r="C15" s="12"/>
@@ -1571,7 +1583,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1602,12 @@
       <c r="F16" s="25">
         <v>50166</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="34">
+        <v>1</v>
+      </c>
       <c r="I16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1617,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="32"/>
       <c r="C17" s="12"/>
@@ -1617,7 +1633,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>36</v>
       </c>
@@ -1645,7 +1661,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="4080" windowWidth="23040" windowHeight="9525" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="4800" yWindow="4080" windowWidth="23040" windowHeight="9525" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Ref Des</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000357</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1649,9 @@
       <c r="D18" s="12">
         <v>3</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
       <c r="F18" s="12">
         <v>388</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="4080" windowWidth="23040" windowHeight="9525" tabRatio="377"/>
+    <workbookView xWindow="4800" yWindow="4080" windowWidth="23040" windowHeight="9520" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -758,7 +753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,7 +788,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1004,22 +999,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="30" t="s">
         <v>37</v>
       </c>
@@ -1057,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1101,11 +1096,11 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -1124,22 +1119,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1204,7 +1199,7 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -1243,7 +1238,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1282,7 +1277,7 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1321,7 +1316,7 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="4"/>
       <c r="B6" s="31"/>
       <c r="C6" s="12"/>
@@ -1342,7 +1337,7 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
@@ -1365,7 +1360,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="22">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>19</v>
@@ -1376,7 +1371,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +1405,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="3" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -1444,7 +1439,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="3" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1478,7 +1473,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="3" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="31"/>
       <c r="C11" s="12"/>
@@ -1494,7 +1489,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="3" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1524,7 +1519,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="3" customFormat="1">
       <c r="A13" s="9"/>
       <c r="B13" s="32"/>
       <c r="C13" s="12"/>
@@ -1540,7 +1535,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="3" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -1570,7 +1565,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="3" customFormat="1">
       <c r="A15" s="9"/>
       <c r="B15" s="32"/>
       <c r="C15" s="12"/>
@@ -1586,7 +1581,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="3" customFormat="1">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -1620,7 +1615,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="3" customFormat="1">
       <c r="A17" s="9"/>
       <c r="B17" s="32"/>
       <c r="C17" s="12"/>
@@ -1636,7 +1631,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="3" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>36</v>
       </c>
@@ -1666,7 +1661,7 @@
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="3" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="4080" windowWidth="23040" windowHeight="9520" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="41940" yWindow="3960" windowWidth="23040" windowHeight="9520" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1079,7 +1079,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
@@ -1119,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="41940" yWindow="3960" windowWidth="23040" windowHeight="9520" tabRatio="377"/>
+    <workbookView xWindow="1880" yWindow="1480" windowWidth="23040" windowHeight="9520" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1066,12 +1066,14 @@
         <v>3</v>
       </c>
       <c r="E2" s="24">
-        <v>42296</v>
+        <v>42299</v>
       </c>
       <c r="F2" s="8">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G2" s="7"/>
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42390</v>
+      </c>
       <c r="H2" s="27" t="s">
         <v>28</v>
       </c>
